--- a/df_portal_order_check/output_files/16_04_2024_store_có_đặt.xlsx
+++ b/df_portal_order_check/output_files/16_04_2024_store_có_đặt.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Order_Qty</t>
+          <t>Số lượng SKU đã đặt</t>
         </is>
       </c>
     </row>
